--- a/TestData/60100000.xlsx
+++ b/TestData/60100000.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tokyomanamela/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tokyomanamela/git/APIAutomation/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9CE605-44BA-D342-83C3-94FBCFEF5B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D61D66-7321-EB43-8CB7-68BDE5AB5D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{C803A493-06B4-7442-A1DD-EE01984397FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{C803A493-06B4-7442-A1DD-EE01984397FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Requests" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="265">
   <si>
     <t>TestCaseNumber</t>
   </si>
@@ -226,15 +226,9 @@
     <t>MainpremiumAmount10K</t>
   </si>
   <si>
-    <t>MainpremiumAmount15K</t>
-  </si>
-  <si>
     <t>MainpremiumAmount20K</t>
   </si>
   <si>
-    <t>MainpremiumAmount35K</t>
-  </si>
-  <si>
     <t>MainpremiumAmount50K</t>
   </si>
   <si>
@@ -244,532 +238,598 @@
     <t>partnerPremiumAmount10K</t>
   </si>
   <si>
-    <t>partnerPremiumAmount15K</t>
-  </si>
-  <si>
     <t>partnerPremiumAmount20K</t>
   </si>
   <si>
-    <t>partnerPremiumAmount35K</t>
-  </si>
-  <si>
     <t>partnerPremiumAmount50K</t>
   </si>
   <si>
+    <t>ChildPremiumAmount20K</t>
+  </si>
+  <si>
+    <t>ParentPremiumAmount10K</t>
+  </si>
+  <si>
+    <t>ParentPremiumAmount20K</t>
+  </si>
+  <si>
+    <t>MainLife</t>
+  </si>
+  <si>
+    <t>138.0</t>
+  </si>
+  <si>
+    <t>162.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>115.0</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>212.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>224.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>148.0</t>
+  </si>
+  <si>
+    <t>244.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>402.0</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>207.0</t>
+  </si>
+  <si>
+    <t>225.0</t>
+  </si>
+  <si>
+    <t>636.0</t>
+  </si>
+  <si>
+    <t>TC_001_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_002_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_003_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_004_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_005_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_006_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_007_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_008_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_009_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_010_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_011_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_012_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_013_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_014_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_015_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_016_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_017_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_018_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_019_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_020_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_021_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_022_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_023_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_024_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_025_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_026_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_027_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_028_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_029_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_030_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_031_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_032_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_033_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_034_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_035_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_036_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_037_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_038_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_039_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_040_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_041_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>TC_042_Rates_  60100000</t>
+  </si>
+  <si>
+    <t>MainpremiumAmount30K</t>
+  </si>
+  <si>
+    <t>MainpremiumAmount40K</t>
+  </si>
+  <si>
+    <t>136.0</t>
+  </si>
+  <si>
+    <t>188.0</t>
+  </si>
+  <si>
+    <t>214.0</t>
+  </si>
+  <si>
+    <t>partnerPremiumAmount30K</t>
+  </si>
+  <si>
+    <t>partnerPremiumAmount40K</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>154.0</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>259.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>166.0</t>
+  </si>
+  <si>
+    <t>248.0</t>
+  </si>
+  <si>
+    <t>289.0</t>
+  </si>
+  <si>
+    <t>131.0</t>
+  </si>
+  <si>
+    <t>178.0</t>
+  </si>
+  <si>
+    <t>272.0</t>
+  </si>
+  <si>
+    <t>319.0</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>354.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>216.0</t>
+  </si>
+  <si>
+    <t>282.0</t>
+  </si>
+  <si>
+    <t>348.0</t>
+  </si>
+  <si>
+    <t>414.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>102.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>168.0</t>
+  </si>
+  <si>
+    <t>252.0</t>
+  </si>
+  <si>
+    <t>336.0</t>
+  </si>
+  <si>
+    <t>420.0</t>
+  </si>
+  <si>
+    <t>504.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>198.0</t>
+  </si>
+  <si>
+    <t>312.0</t>
+  </si>
+  <si>
+    <t>426.0</t>
+  </si>
+  <si>
+    <t>540.0</t>
+  </si>
+  <si>
+    <t>654.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>124.0</t>
+  </si>
+  <si>
+    <t>186.0</t>
+  </si>
+  <si>
+    <t>310.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>256.0</t>
+  </si>
+  <si>
+    <t>548.0</t>
+  </si>
+  <si>
+    <t>694.0</t>
+  </si>
+  <si>
+    <t>840.0</t>
+  </si>
+  <si>
+    <t>179.0</t>
+  </si>
+  <si>
+    <t>268.0</t>
+  </si>
+  <si>
+    <t>357.0</t>
+  </si>
+  <si>
+    <t>446.0</t>
+  </si>
+  <si>
+    <t>193.0</t>
+  </si>
+  <si>
+    <t>372.0</t>
+  </si>
+  <si>
+    <t>518.0</t>
+  </si>
+  <si>
+    <t>664.0</t>
+  </si>
+  <si>
+    <t>810.0</t>
+  </si>
+  <si>
+    <t>956.0</t>
+  </si>
+  <si>
+    <t>294.0</t>
+  </si>
+  <si>
+    <t>440.0</t>
+  </si>
+  <si>
+    <t>586.0</t>
+  </si>
+  <si>
+    <t>732.0</t>
+  </si>
+  <si>
+    <t>320.0</t>
+  </si>
+  <si>
+    <t>449.0</t>
+  </si>
+  <si>
+    <t>823.0</t>
+  </si>
+  <si>
+    <t>1010.0</t>
+  </si>
+  <si>
+    <t>1197.0</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>415.0</t>
+  </si>
+  <si>
+    <t>580.0</t>
+  </si>
+  <si>
+    <t>745.0</t>
+  </si>
+  <si>
+    <t>910.0</t>
+  </si>
+  <si>
+    <t>264.0</t>
+  </si>
+  <si>
+    <t>437.0</t>
+  </si>
+  <si>
+    <t>512.0</t>
+  </si>
+  <si>
+    <t>978.0</t>
+  </si>
+  <si>
+    <t>1211.0</t>
+  </si>
+  <si>
+    <t>1444.0</t>
+  </si>
+  <si>
+    <t>321.0</t>
+  </si>
+  <si>
+    <t>491.0</t>
+  </si>
+  <si>
+    <t>661.0</t>
+  </si>
+  <si>
+    <t>831.0</t>
+  </si>
+  <si>
+    <t>1001.0</t>
+  </si>
+  <si>
+    <t>364.0</t>
+  </si>
+  <si>
+    <t>508.0</t>
+  </si>
+  <si>
     <t>ChildPremiumAmount5K</t>
   </si>
   <si>
-    <t>ChildPremiumAmount7_5K</t>
-  </si>
-  <si>
     <t>ChildPremiumAmount10K</t>
   </si>
   <si>
     <t>ChildPremiumAmount15K</t>
-  </si>
-  <si>
-    <t>ChildPremiumAmount20K</t>
-  </si>
-  <si>
-    <t>ParentPremiumAmount10K</t>
-  </si>
-  <si>
-    <t>ParentPremiumAmount15K</t>
-  </si>
-  <si>
-    <t>ParentPremiumAmount20K</t>
-  </si>
-  <si>
-    <t>MainLife</t>
-  </si>
-  <si>
-    <t>93.0</t>
-  </si>
-  <si>
-    <t>106.0</t>
-  </si>
-  <si>
-    <t>114.0</t>
-  </si>
-  <si>
-    <t>138.0</t>
-  </si>
-  <si>
-    <t>162.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>94.0</t>
-  </si>
-  <si>
-    <t>112.0</t>
-  </si>
-  <si>
-    <t>122.0</t>
-  </si>
-  <si>
-    <t>152.0</t>
-  </si>
-  <si>
-    <t>182.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t>115.0</t>
-  </si>
-  <si>
-    <t>126.0</t>
-  </si>
-  <si>
-    <t>159.0</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>97.0</t>
-  </si>
-  <si>
-    <t>121.0</t>
-  </si>
-  <si>
-    <t>134.0</t>
-  </si>
-  <si>
-    <t>173.0</t>
-  </si>
-  <si>
-    <t>212.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>98.0</t>
-  </si>
-  <si>
-    <t>140.0</t>
-  </si>
-  <si>
-    <t>224.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>132.0</t>
-  </si>
-  <si>
-    <t>148.0</t>
-  </si>
-  <si>
-    <t>196.0</t>
-  </si>
-  <si>
-    <t>244.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>104.0</t>
-  </si>
-  <si>
-    <t>143.0</t>
-  </si>
-  <si>
-    <t>219.0</t>
-  </si>
-  <si>
-    <t>276.0</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>78.0</t>
-  </si>
-  <si>
-    <t>111.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>183.0</t>
-  </si>
-  <si>
-    <t>255.0</t>
-  </si>
-  <si>
-    <t>327.0</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>215.0</t>
-  </si>
-  <si>
-    <t>311.0</t>
-  </si>
-  <si>
-    <t>407.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>74.0</t>
-  </si>
-  <si>
-    <t>128.0</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>139.0</t>
-  </si>
-  <si>
-    <t>222.0</t>
-  </si>
-  <si>
-    <t>267.0</t>
-  </si>
-  <si>
-    <t>402.0</t>
-  </si>
-  <si>
-    <t>537.0</t>
-  </si>
-  <si>
-    <t>170.0</t>
-  </si>
-  <si>
-    <t>242.0</t>
-  </si>
-  <si>
-    <t>79.0</t>
-  </si>
-  <si>
-    <t>288.0</t>
-  </si>
-  <si>
-    <t>355.0</t>
-  </si>
-  <si>
-    <t>556.0</t>
-  </si>
-  <si>
-    <t>757.0</t>
-  </si>
-  <si>
-    <t>110.0</t>
-  </si>
-  <si>
-    <t>146.0</t>
-  </si>
-  <si>
-    <t>254.0</t>
-  </si>
-  <si>
-    <t>362.0</t>
-  </si>
-  <si>
-    <t>80.0</t>
-  </si>
-  <si>
-    <t>118.0</t>
-  </si>
-  <si>
-    <t>156.0</t>
-  </si>
-  <si>
-    <t>210.0</t>
-  </si>
-  <si>
-    <t>377.0</t>
-  </si>
-  <si>
-    <t>471.0</t>
-  </si>
-  <si>
-    <t>753.0</t>
-  </si>
-  <si>
-    <t>1035.0</t>
-  </si>
-  <si>
-    <t>105.0</t>
-  </si>
-  <si>
-    <t>207.0</t>
-  </si>
-  <si>
-    <t>360.0</t>
-  </si>
-  <si>
-    <t>513.0</t>
-  </si>
-  <si>
-    <t>225.0</t>
-  </si>
-  <si>
-    <t>451.0</t>
-  </si>
-  <si>
-    <t>568.0</t>
-  </si>
-  <si>
-    <t>919.0</t>
-  </si>
-  <si>
-    <t>1270.0</t>
-  </si>
-  <si>
-    <t>195.0</t>
-  </si>
-  <si>
-    <t>258.0</t>
-  </si>
-  <si>
-    <t>447.0</t>
-  </si>
-  <si>
-    <t>636.0</t>
-  </si>
-  <si>
-    <t>281.0</t>
-  </si>
-  <si>
-    <t>TC_001_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_002_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_003_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_004_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_005_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_006_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_007_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_008_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_009_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_010_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_011_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_012_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_013_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_014_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_015_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_016_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_017_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_018_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_019_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_020_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_021_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_022_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_023_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_024_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_025_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_026_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_027_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_028_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_029_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_030_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_031_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_032_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_033_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_034_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_035_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_036_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_037_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_038_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_039_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_040_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_041_Rates_  60100000</t>
-  </si>
-  <si>
-    <t>TC_042_Rates_  60100000</t>
   </si>
 </sst>
 </file>
@@ -1257,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DE798A-686A-4149-8EBC-34859B729EB7}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1320,7 +1380,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>12</v>
@@ -1358,7 +1418,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>12</v>
@@ -1396,7 +1456,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>12</v>
@@ -1434,7 +1494,7 @@
     </row>
     <row r="5" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>12</v>
@@ -1472,7 +1532,7 @@
     </row>
     <row r="6" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>12</v>
@@ -1510,7 +1570,7 @@
     </row>
     <row r="7" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>208</v>
+        <v>121</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>12</v>
@@ -1548,7 +1608,7 @@
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>209</v>
+        <v>122</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>12</v>
@@ -1586,7 +1646,7 @@
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>12</v>
@@ -1624,7 +1684,7 @@
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>12</v>
@@ -1662,7 +1722,7 @@
     </row>
     <row r="11" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>12</v>
@@ -1700,7 +1760,7 @@
     </row>
     <row r="12" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>12</v>
@@ -1738,7 +1798,7 @@
     </row>
     <row r="13" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>214</v>
+        <v>127</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>12</v>
@@ -1776,7 +1836,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>12</v>
@@ -1814,7 +1874,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>12</v>
@@ -1852,7 +1912,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>12</v>
@@ -1890,7 +1950,7 @@
     </row>
     <row r="17" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>12</v>
@@ -1928,7 +1988,7 @@
     </row>
     <row r="18" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>12</v>
@@ -1966,7 +2026,7 @@
     </row>
     <row r="19" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>12</v>
@@ -2004,7 +2064,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>12</v>
@@ -2042,7 +2102,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>12</v>
@@ -2080,7 +2140,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>12</v>
@@ -2118,7 +2178,7 @@
     </row>
     <row r="23" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>12</v>
@@ -2156,7 +2216,7 @@
     </row>
     <row r="24" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>12</v>
@@ -2194,7 +2254,7 @@
     </row>
     <row r="25" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>12</v>
@@ -2232,7 +2292,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>12</v>
@@ -2270,7 +2330,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>12</v>
@@ -2308,7 +2368,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>12</v>
@@ -2346,7 +2406,7 @@
     </row>
     <row r="29" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>12</v>
@@ -2384,7 +2444,7 @@
     </row>
     <row r="30" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>12</v>
@@ -2422,7 +2482,7 @@
     </row>
     <row r="31" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>12</v>
@@ -2460,7 +2520,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>12</v>
@@ -2498,7 +2558,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>12</v>
@@ -2536,7 +2596,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>12</v>
@@ -2574,7 +2634,7 @@
     </row>
     <row r="35" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>236</v>
+        <v>149</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>12</v>
@@ -2612,7 +2672,7 @@
     </row>
     <row r="36" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>12</v>
@@ -2650,7 +2710,7 @@
     </row>
     <row r="37" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>238</v>
+        <v>151</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>12</v>
@@ -2688,7 +2748,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>12</v>
@@ -2726,7 +2786,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>12</v>
@@ -2764,7 +2824,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>241</v>
+        <v>154</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>12</v>
@@ -2802,7 +2862,7 @@
     </row>
     <row r="41" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
-        <v>242</v>
+        <v>155</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>12</v>
@@ -2840,7 +2900,7 @@
     </row>
     <row r="42" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="B42" s="23" t="s">
         <v>12</v>
@@ -2878,7 +2938,7 @@
     </row>
     <row r="43" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="B43" s="23" t="s">
         <v>12</v>
@@ -2921,10 +2981,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8002EC01-3CA7-5447-A00F-BC3DBE81A151}">
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2943,19 +3003,15 @@
     <col min="13" max="13" width="24.6640625" customWidth="1"/>
     <col min="14" max="14" width="24" customWidth="1"/>
     <col min="15" max="15" width="25.83203125" customWidth="1"/>
-    <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="25.5" customWidth="1"/>
-    <col min="18" max="18" width="26" customWidth="1"/>
-    <col min="19" max="19" width="25.1640625" customWidth="1"/>
-    <col min="20" max="20" width="27" customWidth="1"/>
-    <col min="21" max="22" width="23.5" customWidth="1"/>
-    <col min="23" max="23" width="27.33203125" customWidth="1"/>
-    <col min="24" max="24" width="24.6640625" customWidth="1"/>
-    <col min="25" max="25" width="26.5" customWidth="1"/>
-    <col min="26" max="26" width="23.83203125" customWidth="1"/>
+    <col min="16" max="19" width="27" customWidth="1"/>
+    <col min="20" max="20" width="23.5" customWidth="1"/>
+    <col min="21" max="21" width="27.33203125" customWidth="1"/>
+    <col min="22" max="22" width="24.6640625" customWidth="1"/>
+    <col min="23" max="23" width="26.5" customWidth="1"/>
+    <col min="24" max="24" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2975,63 +3031,57 @@
         <v>63</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="P1" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="S1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="T1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="U1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V1" s="11"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="B2" s="13">
         <v>200</v>
@@ -3040,70 +3090,64 @@
         <v>60100000</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="I2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="L2" s="13" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>87</v>
+        <v>167</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="X2" s="12"/>
-    </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="V2" s="12"/>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="B3" s="13">
         <v>200</v>
@@ -3112,70 +3156,64 @@
         <v>60100000</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="I3" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="L3" s="13" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>87</v>
+        <v>167</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="X3" s="12"/>
-    </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="V3" s="12"/>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="B4" s="13">
         <v>200</v>
@@ -3184,70 +3222,64 @@
         <v>60100000</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="I4" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="L4" s="13" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>87</v>
+        <v>167</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="V4" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="W4" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="X4" s="12"/>
-    </row>
-    <row r="5" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="V4" s="12"/>
+    </row>
+    <row r="5" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="B5" s="7">
         <v>200</v>
@@ -3256,70 +3288,64 @@
         <v>60100000</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="P5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="X5" s="17"/>
-    </row>
-    <row r="6" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V5" s="17"/>
+    </row>
+    <row r="6" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="B6" s="7">
         <v>200</v>
@@ -3328,70 +3354,64 @@
         <v>60100000</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="L6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="P6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="X6" s="17"/>
-    </row>
-    <row r="7" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V6" s="17"/>
+    </row>
+    <row r="7" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>208</v>
+        <v>121</v>
       </c>
       <c r="B7" s="7">
         <v>200</v>
@@ -3400,70 +3420,64 @@
         <v>60100000</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="P7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="W7" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="X7" s="17"/>
-    </row>
-    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V7" s="17"/>
+    </row>
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>209</v>
+        <v>122</v>
       </c>
       <c r="B8" s="13">
         <v>200</v>
@@ -3472,70 +3486,64 @@
         <v>60100000</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="N8" s="13" t="s">
         <v>101</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>87</v>
+        <v>112</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="V8" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="W8" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="X8" s="12"/>
-    </row>
-    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="V8" s="12"/>
+    </row>
+    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="B9" s="13">
         <v>200</v>
@@ -3544,70 +3552,64 @@
         <v>60100000</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>101</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>87</v>
+        <v>112</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="V9" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="W9" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="X9" s="12"/>
-    </row>
-    <row r="10" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="V9" s="12"/>
+    </row>
+    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c r="B10" s="13">
         <v>200</v>
@@ -3616,69 +3618,63 @@
         <v>60100000</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>101</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>87</v>
+        <v>112</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="V10" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="W10" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="B11" s="7">
         <v>200</v>
@@ -3687,69 +3683,63 @@
         <v>60100000</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T11" s="9" t="s">
         <v>87</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="W11" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="B12" s="7">
         <v>200</v>
@@ -3758,69 +3748,63 @@
         <v>60100000</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T12" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="U12" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U12" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>214</v>
+        <v>127</v>
       </c>
       <c r="B13" s="7">
         <v>200</v>
@@ -3829,69 +3813,63 @@
         <v>60100000</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T13" s="9" t="s">
         <v>87</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="B14" s="13">
         <v>200</v>
@@ -3900,69 +3878,63 @@
         <v>60100000</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="M14" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="U14" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="V14" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="W14" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="B15" s="13">
         <v>200</v>
@@ -3971,69 +3943,63 @@
         <v>60100000</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="M15" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T15" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="U15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="V15" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="W15" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="B16" s="13">
         <v>200</v>
@@ -4042,69 +4008,63 @@
         <v>60100000</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="M16" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="U16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="W16" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="B17" s="7">
         <v>200</v>
@@ -4113,69 +4073,63 @@
         <v>60100000</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="T17" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="U17" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="V17" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="W17" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="B18" s="7">
         <v>200</v>
@@ -4184,69 +4138,63 @@
         <v>60100000</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="T18" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="V18" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="W18" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="B19" s="7">
         <v>200</v>
@@ -4255,69 +4203,63 @@
         <v>60100000</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="T19" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="U19" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="V19" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="W19" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="B20" s="13">
         <v>200</v>
@@ -4326,69 +4268,63 @@
         <v>60100000</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>87</v>
+        <v>110</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="V20" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="W20" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="B21" s="13">
         <v>200</v>
@@ -4397,69 +4333,63 @@
         <v>60100000</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>87</v>
+        <v>110</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="W21" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="B22" s="13">
         <v>200</v>
@@ -4468,69 +4398,63 @@
         <v>60100000</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>87</v>
+        <v>110</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="V22" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="W22" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="B23" s="7">
         <v>200</v>
@@ -4539,69 +4463,63 @@
         <v>60100000</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="R23" s="7" t="s">
-        <v>87</v>
+        <v>114</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="V23" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="W23" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c r="B24" s="7">
         <v>200</v>
@@ -4610,69 +4528,63 @@
         <v>60100000</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>87</v>
+        <v>114</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="V24" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="W24" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="B25" s="7">
         <v>200</v>
@@ -4681,69 +4593,63 @@
         <v>60100000</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="R25" s="7" t="s">
-        <v>87</v>
+        <v>114</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="V25" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="W25" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="B26" s="13">
         <v>200</v>
@@ -4752,69 +4658,63 @@
         <v>60100000</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>87</v>
+        <v>218</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="V26" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="B27" s="13">
         <v>200</v>
@@ -4823,69 +4723,63 @@
         <v>60100000</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>87</v>
+        <v>218</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="V27" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="W27" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="B28" s="13">
         <v>200</v>
@@ -4894,69 +4788,63 @@
         <v>60100000</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>87</v>
+        <v>218</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="V28" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="W28" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c r="B29" s="7">
         <v>200</v>
@@ -4964,70 +4852,64 @@
       <c r="C29" s="7">
         <v>60100000</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>81</v>
+      <c r="D29" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="V29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="W29" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="B30" s="7">
         <v>200</v>
@@ -5035,70 +4917,64 @@
       <c r="C30" s="7">
         <v>60100000</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>81</v>
+      <c r="D30" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="S30" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T30" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="V30" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="W30" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="B31" s="7">
         <v>200</v>
@@ -5106,70 +4982,64 @@
       <c r="C31" s="7">
         <v>60100000</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>81</v>
+      <c r="D31" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="V31" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="W31" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="B32" s="13">
         <v>200</v>
@@ -5178,69 +5048,63 @@
         <v>60100000</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>170</v>
+        <v>72</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="S32" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T32" s="13" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="U32" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="V32" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="W32" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="B33" s="13">
         <v>200</v>
@@ -5249,69 +5113,63 @@
         <v>60100000</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>170</v>
+        <v>72</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="Q33" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="R33" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="S33" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T33" s="13" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="U33" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="V33" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="W33" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="B34" s="13">
         <v>200</v>
@@ -5320,69 +5178,63 @@
         <v>60100000</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>170</v>
+        <v>72</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="Q34" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="R34" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="S34" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T34" s="13" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="U34" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="V34" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="W34" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>236</v>
+        <v>149</v>
       </c>
       <c r="B35" s="7">
         <v>200</v>
@@ -5390,70 +5242,64 @@
       <c r="C35" s="7">
         <v>60100000</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>81</v>
+      <c r="D35" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T35" s="7" t="s">
-        <v>87</v>
+        <v>249</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="V35" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="W35" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="B36" s="7">
         <v>200</v>
@@ -5461,70 +5307,64 @@
       <c r="C36" s="7">
         <v>60100000</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>81</v>
+      <c r="D36" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="S36" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T36" s="7" t="s">
-        <v>87</v>
+        <v>249</v>
       </c>
       <c r="U36" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="V36" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="W36" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>238</v>
+        <v>151</v>
       </c>
       <c r="B37" s="7">
         <v>200</v>
@@ -5532,70 +5372,64 @@
       <c r="C37" s="7">
         <v>60100000</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>81</v>
+      <c r="D37" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T37" s="7" t="s">
-        <v>87</v>
+        <v>249</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="V37" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="W37" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="B38" s="13">
         <v>200</v>
@@ -5604,69 +5438,63 @@
         <v>60100000</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="O38" s="13" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="Q38" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="R38" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="S38" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T38" s="13" t="s">
-        <v>87</v>
+        <v>260</v>
       </c>
       <c r="U38" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="V38" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="W38" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="B39" s="13">
         <v>200</v>
@@ -5675,69 +5503,63 @@
         <v>60100000</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="O39" s="13" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="P39" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="Q39" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="R39" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="S39" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T39" s="13" t="s">
-        <v>87</v>
+        <v>260</v>
       </c>
       <c r="U39" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="V39" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="W39" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>241</v>
+        <v>154</v>
       </c>
       <c r="B40" s="13">
         <v>200</v>
@@ -5746,69 +5568,63 @@
         <v>60100000</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="Q40" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="R40" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="S40" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T40" s="13" t="s">
-        <v>87</v>
+        <v>260</v>
       </c>
       <c r="U40" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="V40" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="W40" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>242</v>
+        <v>155</v>
       </c>
       <c r="B41" s="21">
         <v>400</v>
@@ -5817,7 +5633,7 @@
         <v>60100000</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
@@ -5836,12 +5652,10 @@
       <c r="S41" s="21"/>
       <c r="T41" s="21"/>
       <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-    </row>
-    <row r="42" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="B42" s="21">
         <v>400</v>
@@ -5850,7 +5664,7 @@
         <v>60100000</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
@@ -5869,12 +5683,10 @@
       <c r="S42" s="21"/>
       <c r="T42" s="21"/>
       <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-    </row>
-    <row r="43" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="B43" s="21">
         <v>400</v>
@@ -5883,7 +5695,7 @@
         <v>60100000</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
@@ -5902,8 +5714,6 @@
       <c r="S43" s="21"/>
       <c r="T43" s="21"/>
       <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
